--- a/financial_models/opportunities/3968.HK_Valuation_v1.00.xlsx
+++ b/financial_models/opportunities/3968.HK_Valuation_v1.00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC3FCAE-EBAD-4F39-9A14-A9AB1B657425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07E868A1-3ABF-4D9A-82DE-A6D268BB46D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -3566,8 +3566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4139,7 +4139,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.0200857230516755E-2</v>
+        <v>6.0481672609420049E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4820,8 +4820,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4874,7 +4874,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>35.049999237060497</v>
+        <v>35</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="G5" s="272">
         <f>G3*G4/1000000</f>
-        <v>883955.56907383353</v>
+        <v>882694.59603500005</v>
       </c>
       <c r="H5" s="272"/>
       <c r="I5" s="38"/>
@@ -4964,7 +4964,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1.07</v>
+        <v>1.0734576781590779</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>0.15970371129389707</v>
+        <v>0.16044867175230934</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5179,7 +5179,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.0200857230516755E-2</v>
+        <v>6.0481672609420049E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5209,20 +5209,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>16.589323302359698</v>
+        <v>16.66498402790198</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>31.887675411008765</v>
+        <v>32.033108989791955</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>19.516850943952587</v>
+        <v>19.605863562237623</v>
       </c>
       <c r="G29" s="271">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>27.728413400877187</v>
+        <v>27.854877382427791</v>
       </c>
       <c r="H29" s="271"/>
     </row>
@@ -12097,17 +12097,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15970371129389707</v>
+        <v>0.16044867175230934</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15970371129389707</v>
+        <v>0.16044867175230934</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15970371129389707</v>
+        <v>0.16044867175230934</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12148,17 +12148,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0200857230516755E-2</v>
+        <v>6.0481672609420049E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0200857230516755E-2</v>
+        <v>6.0481672609420049E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0200857230516755E-2</v>
+        <v>6.0481672609420049E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12218,14 +12218,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>163.08189904980387</v>
+        <v>164.13505801171038</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>163.08189904980387</v>
+        <v>164.13505801171038</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12243,14 +12243,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>39.255358423485184</v>
+        <v>39.434394593050982</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>212</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>39.255358423485184</v>
+        <v>39.434394593050982</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12293,21 +12293,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>2044838.3508977932</v>
+        <v>2058043.6167638747</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>81.080526155826774</v>
+        <v>81.604132290257581</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>81.080526155826774</v>
+        <v>81.604132290257581</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>115.1945236690978</v>
+        <v>115.93843299117171</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12356,27 +12356,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>2044838.3508977932</v>
+        <v>2058043.6167638747</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>68.918447232452763</v>
+        <v>69.363512446718943</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>81.080526155826774</v>
+        <v>81.604132290257581</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>81.080526155826774</v>
+        <v>81.604132290257581</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>81.080526155826774</v>
+        <v>81.604132290257581</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>115.1945236690978</v>
+        <v>115.93843299117171</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12417,27 +12417,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>492211.96742421534</v>
+        <v>494456.85191390471</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>16.589323302359698</v>
+        <v>16.66498402790198</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>19.516850943952587</v>
+        <v>19.605863562237623</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>19.516850943952587</v>
+        <v>19.605863562237623</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>19.516850943952587</v>
+        <v>19.605863562237623</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>27.728413400877187</v>
+        <v>27.854877382427791</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12478,27 +12478,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1268525.1591610045</v>
+        <v>1276250.2343388898</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>42.753885267406233</v>
+        <v>43.014248237310461</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>50.298688549889683</v>
+        <v>50.604997926247606</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>50.298688549889683</v>
+        <v>50.604997926247606</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>50.298688549889683</v>
+        <v>50.604997926247606</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>71.461468534987489</v>
+        <v>71.896655186799748</v>
       </c>
       <c r="K106" s="24"/>
     </row>
